--- a/домаш 29.06.xlsx
+++ b/домаш 29.06.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Любаня\Downloads\tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\репозиторий\selena\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB01A5D-F046-42F6-A935-538A37CF3AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="682" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -18,8 +19,14 @@
   <definedNames>
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
   <si>
     <t>passed</t>
   </si>
@@ -780,16 +787,6 @@
     <t>открывается видеозапись и начинается вспроизведение</t>
   </si>
   <si>
-    <t xml:space="preserve">Перейти на сайт vk.com;
-нажать в меню на раздел "видео";
-в поисковой строке ввести "Карелия";
-выбрать видео с названием "100 лет республике карелия";
-нажать кнопку "поделиться";
-выбрать фильтр "на своей стене";
-нажать кнопку поделиться
-</t>
-  </si>
-  <si>
     <t>ссылка на видео опубликована на стене пользователя</t>
   </si>
   <si>
@@ -806,7 +803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -1113,6 +1110,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1127,24 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -1521,13 +1518,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 E6 K3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 E6 K3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Result</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1537,15 +1534,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1634,7 +1631,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$52,"passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1761,43 +1758,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="32" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="32" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="38"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="38"/>
+      <c r="R6" s="32"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="38"/>
+      <c r="T6" s="32"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1807,29 +1804,29 @@
     </row>
     <row r="7" spans="1:26" ht="6.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="40"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="38"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="38"/>
+      <c r="P7" s="32"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="38"/>
+      <c r="R7" s="32"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="38"/>
+      <c r="T7" s="32"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1859,7 +1856,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1895,7 +1894,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1931,7 +1932,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -3104,7 +3107,7 @@
       <c r="B43" s="3">
         <v>36</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="31" t="s">
         <v>124</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -3435,10 +3438,10 @@
         <v>142</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="26"/>
@@ -3919,6 +3922,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3926,15 +3935,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T52 P8:P52 R8:R52 L8:L52 N8:N52">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T52 P8:P52 R8:R52 L8:L52 N8:N52" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
   </dataValidations>
